--- a/Для сайта/ВК/frame.xlsx
+++ b/Для сайта/ВК/frame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Для сайта\ВК\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA85872E-6FA4-4A58-B665-B08D7DCCFEFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F25292-E07A-409E-8CF7-293160289A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -79,9 +79,6 @@
     <t>Принципильная схема</t>
   </si>
   <si>
-    <t>05.25</t>
-  </si>
-  <si>
     <t>Строительство водогрейной котельной 400Гкал/час на территории Ивановской ТЭЦ-2</t>
   </si>
   <si>
@@ -91,7 +88,10 @@
     <t>1</t>
   </si>
   <si>
-    <t>878.2023-АСУ ТП.ТЗ1 (АСУТП ВК)</t>
+    <t>07.25</t>
+  </si>
+  <si>
+    <t>878.2023-АСУ ТП (АСУТП ВК)</t>
   </si>
 </sst>
 </file>
@@ -460,11 +460,11 @@
     <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="74.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="11" width="5.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,16 +514,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>17</v>
-      </c>
-      <c r="E2" t="s">
-        <v>18</v>
       </c>
       <c r="F2" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
@@ -535,7 +535,7 @@
         <v>10</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Для сайта/ВК/frame.xlsx
+++ b/Для сайта/ВК/frame.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Documents\Projects\380-25_Ivanovo_TEC\Для сайта\ВК\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9F25292-E07A-409E-8CF7-293160289A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{941059C0-A719-4F14-B689-03C9F6F1820D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -76,22 +76,22 @@
 www.nppesn.ru</t>
   </si>
   <si>
-    <t>Принципильная схема</t>
-  </si>
-  <si>
     <t>Строительство водогрейной котельной 400Гкал/час на территории Ивановской ТЭЦ-2</t>
   </si>
   <si>
     <t>РФ, Ивановская область, г.Иваново, ул. Суворова, 76</t>
   </si>
   <si>
-    <t>1</t>
-  </si>
-  <si>
     <t>07.25</t>
   </si>
   <si>
-    <t>878.2023-АСУ ТП (АСУТП ВК)</t>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Принципиальная схема</t>
+  </si>
+  <si>
+    <t>878.2023-АСУ ТП.СБ.2</t>
   </si>
 </sst>
 </file>
@@ -461,7 +461,7 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="81.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="52.42578125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.42578125" customWidth="1"/>
     <col min="9" max="9" width="30.28515625" bestFit="1" customWidth="1"/>
@@ -514,16 +514,16 @@
         <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" t="s">
         <v>20</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="F2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="H2" s="2" t="s">
         <v>15</v>
